--- a/public/StructureDefinition-MyCareTeam.xlsx
+++ b/public/StructureDefinition-MyCareTeam.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T18:37:33-06:00</t>
+    <t>2022-01-17T13:06:47-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-MyCareTeam.xlsx
+++ b/public/StructureDefinition-MyCareTeam.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-17T13:06:47-06:00</t>
+    <t>2022-01-17T13:47:18-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-MyCareTeam.xlsx
+++ b/public/StructureDefinition-MyCareTeam.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-17T13:47:18-06:00</t>
+    <t>2022-01-17T14:13:39-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-MyCareTeam.xlsx
+++ b/public/StructureDefinition-MyCareTeam.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-17T14:13:39-06:00</t>
+    <t>2022-01-17T15:55:59-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-MyCareTeam.xlsx
+++ b/public/StructureDefinition-MyCareTeam.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-17T15:55:59-06:00</t>
+    <t>2022-01-17T19:18:25-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-MyCareTeam.xlsx
+++ b/public/StructureDefinition-MyCareTeam.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-17T19:18:25-06:00</t>
+    <t>2022-03-07T02:13:14-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-MyCareTeam.xlsx
+++ b/public/StructureDefinition-MyCareTeam.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T02:13:14-06:00</t>
+    <t>2022-03-07T17:38:24-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-MyCareTeam.xlsx
+++ b/public/StructureDefinition-MyCareTeam.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T17:38:24-06:00</t>
+    <t>2022-03-07T17:57:52-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-MyCareTeam.xlsx
+++ b/public/StructureDefinition-MyCareTeam.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://gitlab.mitre.org/awatson/hello-implementation-guide/StructureDefinition/MyCareTeam</t>
+    <t>https://gitlab.mitre.org/awatson/sphr/StructureDefinition/MyCareTeam</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T17:57:52-06:00</t>
+    <t>2022-03-07T22:25:08-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-MyCareTeam.xlsx
+++ b/public/StructureDefinition-MyCareTeam.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T22:25:08-06:00</t>
+    <t>2022-03-08T03:29:37-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-MyCareTeam.xlsx
+++ b/public/StructureDefinition-MyCareTeam.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-08T03:29:37-06:00</t>
+    <t>2022-03-09T08:58:18-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-MyCareTeam.xlsx
+++ b/public/StructureDefinition-MyCareTeam.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-09T08:58:18-06:00</t>
+    <t>2022-03-09T09:27:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
